--- a/InputTestData.xlsx
+++ b/InputTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>E-Mail</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Changing Password</t>
   </si>
   <si>
-    <t>Account Login</t>
-  </si>
-  <si>
     <t>My Account Information</t>
   </si>
   <si>
@@ -101,13 +98,70 @@
   </si>
   <si>
     <t>530046</t>
+  </si>
+  <si>
+    <t>geethika</t>
+  </si>
+  <si>
+    <t>geethu</t>
+  </si>
+  <si>
+    <t>geethikau@gmail.com</t>
+  </si>
+  <si>
+    <t>uddaraju</t>
+  </si>
+  <si>
+    <t>Navallur</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>OMR Road</t>
+  </si>
+  <si>
+    <t>bhavya11</t>
+  </si>
+  <si>
+    <t>vandana</t>
+  </si>
+  <si>
+    <t>bhavya</t>
+  </si>
+  <si>
+    <t>vandanapu</t>
+  </si>
+  <si>
+    <t>636103</t>
+  </si>
+  <si>
+    <t>632154</t>
+  </si>
+  <si>
+    <t>sarakish@gmail.com</t>
+  </si>
+  <si>
+    <t>sarulatha@gmail.com</t>
+  </si>
+  <si>
+    <t>Bavi@97</t>
+  </si>
+  <si>
+    <t>jahnu</t>
+  </si>
+  <si>
+    <t>kantha</t>
+  </si>
+  <si>
+    <t>dsfgfh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +184,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -196,12 +256,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -210,9 +280,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -521,29 +588,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -552,6 +623,21 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -560,20 +646,35 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -582,6 +683,15 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -590,6 +700,15 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -598,6 +717,15 @@
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -606,20 +734,29 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D8" s="7">
+        <v>8974562358</v>
+      </c>
+      <c r="E8">
+        <v>5454545789</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -628,35 +765,62 @@
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
+      <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -664,47 +828,101 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>28</v>
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -716,8 +934,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>